--- a/Essential Statistics for Data Analysis using Excel/Module1Homework-NEW/HierarchicalHW.xlsx
+++ b/Essential Statistics for Data Analysis using Excel/Module1Homework-NEW/HierarchicalHW.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winston\Documents\module1hwexams\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramneekm\Documents\datasc\Essential Statistics for Data Analysis using Excel\Module1Homework-NEW\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8910" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="2" r:id="rId1"/>
@@ -19,12 +19,34 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Question 1'!$B$4:$C$8</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Question 1'!$D$3</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Question 2'!$D$2</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Question 2'!$D$3:$D$12</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Question 3'!$K$19:$L$45</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Question 3'!$M$18</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Question 3'!$M$19:$M$45</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Question 3'!$K$19:$L$45</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Question 3'!$M$18</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Question 3'!$M$19:$M$45</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Question 3'!$K$19:$L$45</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'Question 3'!$M$18</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Question 1'!$D$4:$D$8</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'Question 3'!$M$19:$M$45</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'Question 3'!$M$19:$M$45</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'Question 3'!$C$5:$D$926</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'Question 3'!$E$4</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'Question 3'!$E$5:$E$926</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Question 1'!$B$4:$C$8</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'Question 1'!$D$3</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'Question 1'!$D$4:$D$8</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Question 2'!$B$3:$C$12</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Question 2'!$D$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Question 2'!$D$3:$D$12</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Question 2'!$B$3:$C$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="65">
   <si>
     <t>HPER</t>
   </si>
@@ -227,6 +249,9 @@
   <si>
     <t>Also use the Design Tab to Remove Totals</t>
   </si>
+  <si>
+    <t>Sum of Revenue</t>
+  </si>
 </sst>
 </file>
 
@@ -236,7 +261,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +283,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -273,7 +306,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -281,12 +314,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -304,6 +346,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -337,20 +382,23 @@
   <cx:chart>
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
-        <cx:rich>
-          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Store Sales</a:t>
-            </a:r>
-          </a:p>
-        </cx:rich>
+        <cx:txData>
+          <cx:v>Store Sales</cx:v>
+        </cx:txData>
       </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Store Sales</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
@@ -362,7 +410,8 @@
             </cx:txData>
           </cx:tx>
           <cx:dataLabels pos="inEnd">
-            <cx:visibility seriesName="0" categoryName="1" value="0"/>
+            <cx:visibility seriesName="0" categoryName="1" value="1"/>
+            <cx:separator>, </cx:separator>
           </cx:dataLabels>
           <cx:dataId val="0"/>
           <cx:layoutPr>
@@ -422,7 +471,8 @@
             </cx:txData>
           </cx:tx>
           <cx:dataLabels pos="ctr">
-            <cx:visibility seriesName="0" categoryName="1" value="0"/>
+            <cx:visibility seriesName="0" categoryName="1" value="1"/>
+            <cx:separator>, </cx:separator>
           </cx:dataLabels>
           <cx:dataId val="0"/>
         </cx:series>
@@ -434,6 +484,154 @@
     <cx:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
     <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="default" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   </cx:printSettings>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f>_xlchart.v1.8</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="treemap" uniqueId="{32745AA9-58C2-434D-91E2-F2AC0AB0CB60}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.7</cx:f>
+              <cx:v>Students</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels pos="inEnd">
+            <cx:visibility seriesName="0" categoryName="1" value="1"/>
+            <cx:separator>, </cx:separator>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:parentLabelLayout val="overlapping"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="sunburst" uniqueId="{222B61D1-C15E-44CF-A9F3-F13ABA86DB74}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:v>Students</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels pos="ctr">
+            <cx:visibility seriesName="0" categoryName="1" value="1"/>
+            <cx:separator>, </cx:separator>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.12</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f>_xlchart.v1.14</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="treemap" uniqueId="{415D73C3-0861-48D0-BBFA-BAD35A29173C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.13</cx:f>
+              <cx:v/>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels pos="inEnd">
+            <cx:visibility seriesName="0" categoryName="1" value="1"/>
+            <cx:separator>, </cx:separator>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:parentLabelLayout val="overlapping"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.15</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f>_xlchart.v1.17</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="sunburst" uniqueId="{BA769075-E7FA-43A5-8257-8D495A9443F7}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:v/>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels pos="ctr">
+            <cx:visibility seriesName="0" categoryName="1" value="1"/>
+            <cx:separator>, </cx:separator>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+  </cx:chart>
 </cx:chartSpace>
 </file>
 
@@ -478,6 +676,166 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1400,6 +1758,2070 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="410">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="381">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="410">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="381">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1419,7 +3841,13 @@
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Chart 1"/>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -1442,6 +3870,10 @@
             </xdr:cNvSpPr>
           </xdr:nvSpPr>
           <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4305300" y="1323975"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -1475,19 +3907,25 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="Chart 2"/>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -1510,6 +3948,10 @@
             </xdr:cNvSpPr>
           </xdr:nvSpPr>
           <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9277350" y="733425"/>
+              <a:ext cx="5391150" cy="4286250"/>
+            </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -1539,6 +3981,5127 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3067050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F191509-AD96-404E-BC4D-B235FF762B4E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3676650" y="1438275"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EBC97B1-CE72-4DA2-8A82-33AECED1DAA1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8343900" y="409575"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E24F001-83BC-4CB4-BC09-63D4AF1DB6A6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7800975" y="3524250"/>
+              <a:ext cx="5086350" cy="3657600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Chart 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA318432-70DA-4ED0-90CE-CAEFDA0A7C1D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1419225" y="3171824"/>
+              <a:ext cx="5543550" cy="4029075"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ramneek singh" refreshedDate="42899.204036342591" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="922">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="C4:E926" sheet="Question 3"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Group" numFmtId="0">
+      <sharedItems count="4">
+        <s v="milk"/>
+        <s v="ice cream"/>
+        <s v="fruit"/>
+        <s v="cereal"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Product" numFmtId="0">
+      <sharedItems count="14">
+        <s v="low fat"/>
+        <s v="Edies"/>
+        <s v="skim"/>
+        <s v="plums"/>
+        <s v="apples"/>
+        <s v="cherries"/>
+        <s v="Special K"/>
+        <s v="Raisin Bran"/>
+        <s v="grapes"/>
+        <s v="chocolate"/>
+        <s v="Breyers"/>
+        <s v="Cheerios"/>
+        <s v="whole"/>
+        <s v="Ben and Jerry's"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Revenue" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1037.1600000000001" maxValue="3932"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="922">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3187.8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="3412.48"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1808.48"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2260"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2076.87"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="1707.09"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2181.7600000000002"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1894.2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="1856.4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="1553.63"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2064.48"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1809.64"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="2196.41"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1932.84"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1987.68"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2217.12"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2189.88"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="1895.04"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="3274.94"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="3281.76"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1247.1600000000001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1513.92"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2716.56"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="2408.6999999999998"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="2594.5500000000002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1542.89"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2456.9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2664.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="2901.4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="2006.52"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="1713.04"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2319.33"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1544.51"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2866.46"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="1395.36"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1244.22"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="1590.77"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1817.2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1972.48"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="1967.5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="2397.63"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1449.57"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="1886"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2485.4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="3227.25"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="1996.26"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="2457"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="1477.06"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1963"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1517.67"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1646.9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="1812.04"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="2234.48"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="1368.75"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="3518.9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="2027.52"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1695.69"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="2186.1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="2471.04"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="1781.26"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="2591.0500000000002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3293.6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2180.85"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1860"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="1953.05"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="2059.6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="3303.44"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="2329.86"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="1839.33"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2405.88"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1553.42"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1639.84"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="1820.88"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="1620.24"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="1838.85"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="2436.1999999999998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1972.06"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="1574.4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1481.85"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="3170.98"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="3702.6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1773.88"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="1869.6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2354.5700000000002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2003.76"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1514.52"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2474.34"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="2783.32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1654.56"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="3674.84"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="1963.2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="2383.83"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="2188.8000000000002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3120.45"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1448.64"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1401.62"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="2934.92"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="2663.87"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2815.15"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1976"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="3056.41"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="2167.1999999999998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="2302.3000000000002"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1576.14"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="1519.8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1880.82"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="2658.29"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2526"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="3469.78"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2897.7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2876.76"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="1781.12"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1388.85"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="1649.7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2954.7"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2564.94"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2064.3000000000002"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="3160.9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2276.0100000000002"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="1941.45"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="1670.79"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2337.7199999999998"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1846.2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="2708.48"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="2314.1999999999998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1966.2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2200.77"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="1538.68"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2403.4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="2299.08"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="2588.3000000000002"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="1047.55"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="2673.36"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="2507.7600000000002"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2134.86"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="2611.31"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="1875.63"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="2972.2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="3452.16"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="2423.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="2325.5100000000002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1699.36"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="1691.2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="1900"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2006.4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="2519.34"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1754.91"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="2736.95"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="2491.46"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1772.7"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1881.6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="2530.61"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2176.7399999999998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="3143.4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1317.84"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="1912.32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1842.28"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="1806.12"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="1398.6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="2054.4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2168.4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1732.29"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2469.42"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2384.2800000000002"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="2646.54"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1938.06"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2375.34"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="3574.2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="2336.13"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="2174.2399999999998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="2073.96"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="3279.98"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2124.54"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="2066.4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="2301.66"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2926.4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="3131.82"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="3226.4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2275.1999999999998"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="3110.49"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="3175.52"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2707.45"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2378.3200000000002"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="3145.8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="3162.36"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1406.08"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1750.28"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2115.69"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="1534.38"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="1619.8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="2447.13"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="2902.8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="1739.22"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1430.29"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="2646.6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2666.84"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2122.56"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="3447.36"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="3386.88"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="2507.6999999999998"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2115.7600000000002"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="3015.43"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="2946.68"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="3366"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1462.22"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="2202.1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1904.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="2275.56"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="3145.45"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="3220.8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2580.96"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2587.25"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="3506.6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="2903.04"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="1667.96"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="2390.0300000000002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="1972.98"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="3758.58"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="3056.94"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2547.27"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2094.12"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1909.62"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="2109.8000000000002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1586"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1625.82"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2056.83"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1853.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1540.14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1355.61"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1899.11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1954.6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="1744.1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="1270.8800000000001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="3127.84"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3267.84"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1883.95"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="2300.7600000000002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1798.16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="2210.88"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1478.7"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1367.6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="2047.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2034.9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="2931.61"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="3027.31"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2324.64"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="1492.53"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="3652.5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="1416.45"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="1833.92"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="2120.52"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1986.45"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="2443.7199999999998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="3001.68"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2630.97"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2050"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="1838.16"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="1672.56"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="2365.9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="1372"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="1792.19"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="1904.22"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="1420.51"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="2348.0700000000002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2323.1999999999998"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2961.02"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2043"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="2716.56"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="2555.7600000000002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2651.31"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="3116.88"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2731.32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1670.76"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1416.8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="3064.56"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2665.05"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1922.7"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2050.14"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1444.48"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="1989.49"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="1457.82"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="3888.64"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="2018.75"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2796.77"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="2715.6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="2040"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1724.22"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="1997.16"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="1708.15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1062"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="1833.93"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="2214.88"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="1419.6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2211.25"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2225"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="2185.92"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="3253.12"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="2124.8000000000002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1914.36"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2177.6799999999998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="1982.88"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="3557.12"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="2312.87"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1617.56"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1843.92"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1145.7"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2713.6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="1528.12"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="2876.25"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="1856.25"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="1796.3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1551.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2399.4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1505.49"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="3129.84"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="1985.16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="2716.77"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="2387.98"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="2397.7199999999998"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1846.76"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1166.1600000000001"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1827.27"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2643.68"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="2405.7600000000002"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="2786.4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1536"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1749.66"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1898"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2390.41"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2260.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3567.2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2380"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="2085.04"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1953"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="1847.04"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="1833.45"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="1716"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1852.25"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1996.26"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1695.54"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="1867.45"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1639.68"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1770.34"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1763.82"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="1985.36"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1867.15"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="2166.7399999999998"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2531.16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="2656.08"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1696.52"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="1875.92"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="2931.96"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="3463.68"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="2129.92"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="2478.2800000000002"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1407.6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="2408.4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2455.86"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1835.4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2961"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3079.44"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3253.14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2125.6999999999998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="1648"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1708.8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1620"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="2619.6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="1590.68"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="1856.48"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="2205.06"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="1964.16"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="3694.08"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="3224.08"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="1287.68"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="2343.6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1628.55"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="1855.88"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="2803.08"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="2209.27"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="2737.02"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="1182.1500000000001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1476.96"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2344.98"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1992.94"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="1237.68"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1431.12"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2497.9499999999998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1985.2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2058.89"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="2989.15"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="2116.65"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2600.64"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2438.1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2495.56"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="2214"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2023.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="2434.9499999999998"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="1801.2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="1490.94"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="2479"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="2812.95"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="2837.46"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="2879.28"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="2156.2600000000002"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2469"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="1846.4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="2516.56"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2717.19"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2410.56"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="2217.1999999999998"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="3473.04"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="2624.4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="1730.54"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1505.52"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="3619.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="3041.92"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="1774.08"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="2386.5500000000002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2849.72"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2272.3200000000002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1835.35"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="3442.65"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="2358.2399999999998"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2524.8000000000002"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="2019.16"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2062.83"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="2179.3200000000002"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="3041.72"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="3380.52"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="2137.0700000000002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="2666.84"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="3536.64"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="3035.24"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1640.88"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2064.92"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2437.86"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1787.52"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="2569.6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="1258.4000000000001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="1433.59"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2353.1999999999998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="1644.96"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="1531.8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1943.24"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2406.88"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2123.5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1943.7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2329.9499999999998"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2037.76"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1824.84"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="1996.91"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1899.37"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2267.8000000000002"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="3692.1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="1800"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2593.6999999999998"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="3281.9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="2714"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="1388.6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="2634"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="3071.64"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="2421.7199999999998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="3689.88"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="2147.6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1665.51"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="1880.88"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2568.1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="1643.48"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2264.6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2428.37"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="2072.84"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1884.8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="3277.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2984.04"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="3556.8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="1984"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="3109.59"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3796.1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2663.44"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2030"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2744.15"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="1276.99"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="1833.6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="1756.94"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="2656.2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="1936.48"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="2859.56"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="2285.2800000000002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3141.47"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="1508.22"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1874.73"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="2676.96"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="2007"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="2515.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="2982.52"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="3160.3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1717"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="1708"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2648.1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3470.04"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="2362.81"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2946.24"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="3161.92"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2113.44"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2363.84"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="3184"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="2216.6799999999998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1790.7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2027.52"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="1256.7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2130.58"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="3498.75"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="3370.88"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1891.89"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="2832.2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="2400.36"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="2792.65"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="1566.51"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1532.65"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="3316.16"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="1813.84"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="1738.92"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="3104.01"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="1483.52"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2282.84"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="1666.33"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="2351.7600000000002"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1709.76"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="1832.16"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1976.52"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="1821.6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1870.96"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1176.48"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="2838.4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="2782.53"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="2465.42"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="2474.04"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1436.82"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1445.4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1763.28"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1522.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1524.6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1293.71"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="1509.3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="1198.8800000000001"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="1860"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="2010.2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="3440.45"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="2786.04"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1495.52"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1858.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1594.3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="2524.34"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1876.95"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1485.18"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2860.62"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="2472.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2373.7199999999998"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="2185.41"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="2264.4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="1880.74"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1478.4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2762.1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="2057.16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="3064.27"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="2843.1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="1395.36"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2414.86"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="2638.23"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="3215.84"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2748.8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2891.88"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2346.0700000000002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="2588.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2109.8000000000002"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="1521.54"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="2044.7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1073.99"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1994.45"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="1893.6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1799.28"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="3170.7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2503.1999999999998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="1969.92"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="3253.67"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2767.44"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="3104.96"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3684.46"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="2137.1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1189.44"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="3269.7"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="2796.64"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1645"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="2624.48"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="2059.1999999999998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="3590.8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1621.67"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="2432"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="2302.56"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2309.1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1164.1199999999999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2314.6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="2555"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="1756.16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="2235"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1618.8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="1840.32"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="3629.76"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="1252"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="1109.76"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="1387.2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="1543.46"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="2670.2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="2667.72"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2007.25"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="1946.48"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="3230.85"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="3067.26"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1836.12"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2812"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2177.52"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="1545.8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1725.28"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="2015.76"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="2118.4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2404.08"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="1723.68"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1458.6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="2418.2399999999998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2987.75"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2609.52"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2865.28"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="3109.6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2135.56"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="3167.67"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="2412.9899999999998"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2874.63"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="3632.64"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="2557.06"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="3553.15"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="2364.8200000000002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="2175.8000000000002"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="2450.61"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="2008.1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="1622.81"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2105.88"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="2540.7600000000002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="1718.64"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="1547.7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="1037.1600000000001"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="2802.56"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1706.94"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="1420.02"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="1986.48"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2827.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2333.7600000000002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2355.4499999999998"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="2141.7600000000002"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="2437.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2086.56"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1717.38"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2444.6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2401"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="1910.81"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1571.8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="1309.44"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="2631.39"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1908.16"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="1507.5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2243.2800000000002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2772.48"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1549.26"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1791.54"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="1582.49"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="2096.64"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="2112.16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3302.2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2750.7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="2075.7600000000002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="3443.7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="1647.2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="1978.7"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="2049.06"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="1066.05"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="3533.12"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1324.92"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3521.76"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="2183.15"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="2987.52"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="1918.74"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="1587.12"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="2379.25"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="2264.8000000000002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3068.28"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1939.68"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="2919.16"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="2505.75"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2428.75"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="2134.65"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2451.4499999999998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1490.08"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1738.64"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="1790.95"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="1359.8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="3056.9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="2374.7199999999998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1867.6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1790.88"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2855.32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="1482.92"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1827.58"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="1960.8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="3061.14"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="1365.12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="2033.29"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2379.7600000000002"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="2513.2800000000002"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="3609.9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1999.46"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="1735.45"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1724.8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2230.4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="3224.32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2717.37"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="1488.66"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1465.33"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="2422.23"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="2622.11"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="2911.26"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="1991.36"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2846.48"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2841.63"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="3615.48"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1640.32"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="3046.68"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="2328.04"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="1764"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="2420.88"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2148.39"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1343.43"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2283.84"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1925.08"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="2038.33"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="1355.64"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="1308.24"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="2922.73"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1177.44"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="2148.94"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2979.2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1830.12"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1718.2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1877.04"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1821.18"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2035.8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2587.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="2413.36"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="1976"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="3705.91"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1757.98"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="2390.71"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="1958.1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2856.81"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2841.86"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="2222.8200000000002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="3234.39"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="2985.44"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="1277.3800000000001"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="3430.35"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="1878"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="2248.2600000000002"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="2827.22"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2859.8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1850.42"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="3368.64"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1922.04"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="1465.9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="1556.22"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="1758.2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="2029.35"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="2101.3200000000002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1428.3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1972.48"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="3053.22"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="2875.46"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2958.12"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="1182.05"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="2316.86"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2763.32"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="2908.26"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1732.15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="1727.74"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="3189.78"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="3087"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1995"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="1179.1199999999999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="3121.16"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="1739.9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1591.2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2079.9299999999998"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="3569.83"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1701.56"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="2026.08"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3630.84"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2189.88"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="2288.0300000000002"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="1874.4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="1199.0999999999999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1650"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2231.46"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="2310.7199999999998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="3227.1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="1728.7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="2146.7399999999998"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1202.18"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="3932"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2925.52"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="1455.15"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1479.36"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="2850.32"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="2447.13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1085.7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1423.1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="1769.55"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="3236.09"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="2653.2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="2347.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="3136.26"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1927.5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="2708.64"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="1679.58"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="2219.1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1173.6300000000001"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2545.35"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2903.94"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="3900.4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2897.45"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1964.19"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1748.48"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="2342.34"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1990.76"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="2619.2600000000002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2067.36"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2898.72"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="2757.9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="2213.31"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2483.6799999999998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="1834.25"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="3630.9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="2525.8000000000002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2055.88"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="2036.12"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1619.2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="1663.62"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2522.35"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="1607.46"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1398.02"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="2509.1999999999998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1362.2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1746.6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1957.76"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="1293.32"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="2151.37"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="2107.9499999999998"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="3632.26"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2593.7800000000002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2034.51"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2134.66"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2830.61"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="2235.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="2399.04"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="1751.68"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="2099.75"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="2952"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="2028.42"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2687.04"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="2166.19"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="1717.58"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="3320.24"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="1513.92"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1760.15"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="1876.9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2310"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="2020.2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2650.6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1342.46"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="2296.36"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="3168.75"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="3503.9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1228.76"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="1534.06"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2365.04"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="1309.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1759.51"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1837.32"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="1976"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="3066.8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="3091.34"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1723.12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2449.15"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2918.3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1669.36"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1413.6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="2249.1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="2312.1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2497.04"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2566.1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="2534.4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="2976.27"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1753.88"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1903.25"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1327.79"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2526.48"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="1952.28"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2099.34"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2493.1799999999998"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1868.72"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="1814.42"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="3301.9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="1595.3"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+  <location ref="G17:I45" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item x="4"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="12"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" numFmtId="44" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="28">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Revenue" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1806,7 +9369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="D4" workbookViewId="0">
       <selection activeCell="G23" sqref="G23:K26"/>
     </sheetView>
   </sheetViews>
@@ -2003,7 +9566,7 @@
   <dimension ref="B2:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2149,6 +9712,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2156,14 +9720,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:N926"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2415,7 +9981,7 @@
         <v>1809.64</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>40</v>
       </c>
@@ -2425,8 +9991,17 @@
       <c r="E17" s="10">
         <v>2196.41</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="G17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>35</v>
       </c>
@@ -2436,8 +10011,17 @@
       <c r="E18" s="10">
         <v>1932.84</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="K18" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" s="13"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>44</v>
       </c>
@@ -2447,9 +10031,20 @@
       <c r="E19" s="10">
         <v>1987.68</v>
       </c>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="3">
+        <v>123946.51999999996</v>
+      </c>
+      <c r="L19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="3">
+        <v>123946.51999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>44</v>
       </c>
@@ -2459,9 +10054,17 @@
       <c r="E20" s="10">
         <v>2217.12</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="K20" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="13"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>37</v>
       </c>
@@ -2471,9 +10074,20 @@
       <c r="E21" s="10">
         <v>2189.88</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="3">
+        <v>116562.26999999999</v>
+      </c>
+      <c r="L21" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21" s="3">
+        <v>116562.26999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>35</v>
       </c>
@@ -2483,9 +10097,17 @@
       <c r="E22" s="10">
         <v>1895.04</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="K22" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L22" s="13"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>37</v>
       </c>
@@ -2495,9 +10117,20 @@
       <c r="E23" s="10">
         <v>3274.94</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="3">
+        <v>211886.57000000004</v>
+      </c>
+      <c r="L23" t="s">
+        <v>37</v>
+      </c>
+      <c r="M23" s="3">
+        <v>211886.57000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>37</v>
       </c>
@@ -2507,9 +10140,17 @@
       <c r="E24" s="10">
         <v>3281.76</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="K24" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L24" s="13"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>35</v>
       </c>
@@ -2519,9 +10160,20 @@
       <c r="E25" s="10">
         <v>1247.1600000000001</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" s="3">
+        <v>118267.70999999999</v>
+      </c>
+      <c r="L25" t="s">
+        <v>44</v>
+      </c>
+      <c r="M25" s="3">
+        <v>118267.70999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>37</v>
       </c>
@@ -2531,9 +10183,17 @@
       <c r="E26" s="10">
         <v>1513.92</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="K26" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L26" s="13"/>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>37</v>
       </c>
@@ -2543,9 +10203,20 @@
       <c r="E27" s="10">
         <v>2716.56</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="3">
+        <v>123618.59999999999</v>
+      </c>
+      <c r="L27" t="s">
+        <v>40</v>
+      </c>
+      <c r="M27" s="3">
+        <v>123618.59999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>40</v>
       </c>
@@ -2555,9 +10226,17 @@
       <c r="E28" s="10">
         <v>2408.6999999999998</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="K28" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L28" s="13"/>
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>44</v>
       </c>
@@ -2567,9 +10246,20 @@
       <c r="E29" s="10">
         <v>2594.5500000000002</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="3">
+        <v>108539.81999999998</v>
+      </c>
+      <c r="L29" t="s">
+        <v>35</v>
+      </c>
+      <c r="M29" s="3">
+        <v>108539.81999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>37</v>
       </c>
@@ -2579,9 +10269,17 @@
       <c r="E30" s="10">
         <v>1542.89</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="K30" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L30" s="13"/>
+      <c r="M30" s="12"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>37</v>
       </c>
@@ -2591,9 +10289,20 @@
       <c r="E31" s="10">
         <v>2456.9</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" s="3">
+        <v>182468.32000000004</v>
+      </c>
+      <c r="L31" t="s">
+        <v>37</v>
+      </c>
+      <c r="M31" s="3">
+        <v>182468.32000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>37</v>
       </c>
@@ -2603,9 +10312,17 @@
       <c r="E32" s="10">
         <v>2664.5</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="K32" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L32" s="13"/>
+      <c r="M32" s="12"/>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>40</v>
       </c>
@@ -2615,9 +10332,20 @@
       <c r="E33" s="10">
         <v>2901.4</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="3">
+        <v>132023.38999999996</v>
+      </c>
+      <c r="L33" t="s">
+        <v>40</v>
+      </c>
+      <c r="M33" s="3">
+        <v>132023.38999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>40</v>
       </c>
@@ -2627,9 +10355,17 @@
       <c r="E34" s="10">
         <v>2006.52</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="K34" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L34" s="13"/>
+      <c r="M34" s="12"/>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>44</v>
       </c>
@@ -2639,9 +10375,20 @@
       <c r="E35" s="10">
         <v>1713.04</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="3">
+        <v>164946.49000000005</v>
+      </c>
+      <c r="L35" t="s">
+        <v>35</v>
+      </c>
+      <c r="M35" s="3">
+        <v>164946.49000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>44</v>
       </c>
@@ -2651,9 +10398,17 @@
       <c r="E36" s="10">
         <v>2319.33</v>
       </c>
-      <c r="K36" s="3"/>
-    </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="K36" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L36" s="13"/>
+      <c r="M36" s="12"/>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>44</v>
       </c>
@@ -2663,8 +10418,20 @@
       <c r="E37" s="10">
         <v>1544.51</v>
       </c>
-    </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>40</v>
+      </c>
+      <c r="I37" s="3">
+        <v>150034.01</v>
+      </c>
+      <c r="L37" t="s">
+        <v>40</v>
+      </c>
+      <c r="M37" s="3">
+        <v>150034.01</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>44</v>
       </c>
@@ -2674,8 +10441,17 @@
       <c r="E38" s="10">
         <v>2866.46</v>
       </c>
-    </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="K38" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L38" s="13"/>
+      <c r="M38" s="12"/>
+    </row>
+    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>40</v>
       </c>
@@ -2685,8 +10461,20 @@
       <c r="E39" s="10">
         <v>1395.36</v>
       </c>
-    </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" s="3">
+        <v>256438.4200000001</v>
+      </c>
+      <c r="L39" t="s">
+        <v>44</v>
+      </c>
+      <c r="M39" s="3">
+        <v>256438.4200000001</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>37</v>
       </c>
@@ -2696,8 +10484,17 @@
       <c r="E40" s="10">
         <v>1244.22</v>
       </c>
-    </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>39</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="K40" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L40" s="13"/>
+      <c r="M40" s="12"/>
+    </row>
+    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>44</v>
       </c>
@@ -2707,8 +10504,20 @@
       <c r="E41" s="10">
         <v>1590.77</v>
       </c>
-    </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>35</v>
+      </c>
+      <c r="I41" s="3">
+        <v>114995.45999999999</v>
+      </c>
+      <c r="L41" t="s">
+        <v>35</v>
+      </c>
+      <c r="M41" s="3">
+        <v>114995.45999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>40</v>
       </c>
@@ -2718,9 +10527,17 @@
       <c r="E42" s="10">
         <v>1817.2</v>
       </c>
-      <c r="K42" s="2"/>
-    </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="K42" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L42" s="13"/>
+      <c r="M42" s="12"/>
+    </row>
+    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>35</v>
       </c>
@@ -2730,9 +10547,20 @@
       <c r="E43" s="10">
         <v>1972.48</v>
       </c>
-      <c r="K43" s="2"/>
-    </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>44</v>
+      </c>
+      <c r="I43" s="3">
+        <v>141005.75999999998</v>
+      </c>
+      <c r="L43" t="s">
+        <v>44</v>
+      </c>
+      <c r="M43" s="3">
+        <v>141005.75999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>40</v>
       </c>
@@ -2742,9 +10570,17 @@
       <c r="E44" s="10">
         <v>1967.5</v>
       </c>
-      <c r="K44" s="2"/>
-    </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>51</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="K44" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L44" s="13"/>
+      <c r="M44" s="12"/>
+    </row>
+    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>44</v>
       </c>
@@ -2754,9 +10590,20 @@
       <c r="E45" s="10">
         <v>2397.63</v>
       </c>
-      <c r="K45" s="2"/>
-    </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>35</v>
+      </c>
+      <c r="I45" s="3">
+        <v>123601.01000000002</v>
+      </c>
+      <c r="L45" t="s">
+        <v>35</v>
+      </c>
+      <c r="M45" s="3">
+        <v>123601.01000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>35</v>
       </c>
@@ -2768,7 +10615,7 @@
       </c>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>44</v>
       </c>
@@ -2780,7 +10627,7 @@
       </c>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>35</v>
       </c>
@@ -12463,5 +20310,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>